--- a/Week_8/POS/public/template_user.xlsx
+++ b/Week_8/POS/public/template_user.xlsx
@@ -44,16 +44,16 @@
     <t>Joko</t>
   </si>
   <si>
-    <t>staff</t>
-  </si>
-  <si>
     <t>Dilan</t>
   </si>
   <si>
     <t>admin2</t>
   </si>
   <si>
-    <t>customer</t>
+    <t>manager2</t>
+  </si>
+  <si>
+    <t>staff2</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,10 +416,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -447,10 +447,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
       <c r="D4">
         <v>123456</v>
